--- a/GA/fulton_addresses.xlsx
+++ b/GA/fulton_addresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\healthy_elections\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F3C0F-AC59-45DB-A2F1-860BB09B79BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D663C08-C71B-4AB6-A1CF-189AE5164D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5A4AA4A-7C12-4A5F-90A7-44064B7E477A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1953">
   <si>
     <r>
       <rPr>
@@ -32020,6 +32020,1049 @@
   </si>
   <si>
     <t>1     2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC09A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC09B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC09C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC11A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC11B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC14A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC16A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Burdett Park Gym 2945 Burdett Rd
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Split (SC09A, SC09B, SC09C, SC27)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Creel Park
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2775 Creel Road
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Split (SC11A, SC11B)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Langston Hughes High School 7510 Hall Road</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Southwest Regional Library 3665 Cascade Rd
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Split (SC14A, SC30A, SC30B)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Enon Church 3550 Enon Rd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">140
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">184
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">81
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,464
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>86</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,533
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,471
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,533
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>106</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,282
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,335
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2,138
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>92</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">824
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>57</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5,392
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>236</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4,154
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>173</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">21
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">66
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">23
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">223
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">216
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">187
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">187
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">188
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">380
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">125
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">911
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">615
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,754
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>104</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,803
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>63</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,734
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,791
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>131</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,504
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,564
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2,695
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">979
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6,574
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>316</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4,887
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>217</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC17A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC17B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC17C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC18A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC18B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SC18C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Welcome All Park, Community House</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4255 Will Lee Road</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Split (SC17A, SC17B, SC17C, SC18A, SC18B, SC18C)</t>
+    </r>
+  </si>
+  <si>
+    <t>7     0</t>
+  </si>
+  <si>
+    <t>31     5</t>
+  </si>
+  <si>
+    <t>12     3</t>
+  </si>
+  <si>
+    <t>28     1</t>
+  </si>
+  <si>
+    <t>61     3</t>
+  </si>
+  <si>
+    <t>47     6</t>
+  </si>
+  <si>
+    <t>1009     23</t>
+  </si>
+  <si>
+    <t>444     27</t>
+  </si>
+  <si>
+    <t>643     8</t>
+  </si>
+  <si>
+    <t>1627     36</t>
+  </si>
+  <si>
+    <t>10     0</t>
+  </si>
+  <si>
+    <t>12     0</t>
+  </si>
+  <si>
+    <t>126     8</t>
+  </si>
+  <si>
+    <t>78     7</t>
+  </si>
+  <si>
+    <t>108     3</t>
+  </si>
+  <si>
+    <t>245     4</t>
+  </si>
+  <si>
+    <t>52     7</t>
+  </si>
+  <si>
+    <t>11     1</t>
+  </si>
+  <si>
+    <t>1177     36</t>
+  </si>
+  <si>
+    <t>545     37</t>
+  </si>
+  <si>
+    <t>789    13</t>
+  </si>
+  <si>
+    <t>1948     43</t>
   </si>
 </sst>
 </file>
@@ -32601,11 +33644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0414874-63EE-4E22-B4D1-DBD2F72F4CDE}">
-  <dimension ref="A1:AH294"/>
+  <dimension ref="A1:AH310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H293" sqref="H293"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O305" sqref="O305:O310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48122,6 +49165,806 @@
       <c r="P294" s="36"/>
       <c r="Q294" s="36"/>
       <c r="R294" s="36"/>
+    </row>
+    <row r="295" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B295" s="30">
+        <v>13</v>
+      </c>
+      <c r="C295" s="31">
+        <v>39</v>
+      </c>
+      <c r="D295" s="7">
+        <v>63</v>
+      </c>
+      <c r="E295" s="8">
+        <v>6</v>
+      </c>
+      <c r="F295" s="8">
+        <v>6</v>
+      </c>
+      <c r="G295" s="9">
+        <v>5</v>
+      </c>
+      <c r="H295" s="10">
+        <v>1011</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J295" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="L295" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="M295" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N295" s="16" t="s">
+        <v>1905</v>
+      </c>
+      <c r="O295" s="17" t="s">
+        <v>1914</v>
+      </c>
+      <c r="P295" s="2"/>
+      <c r="Q295" s="2"/>
+      <c r="R295" s="2"/>
+    </row>
+    <row r="296" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B296" s="30">
+        <v>13</v>
+      </c>
+      <c r="C296" s="31">
+        <v>39</v>
+      </c>
+      <c r="D296" s="7">
+        <v>64</v>
+      </c>
+      <c r="E296" s="8">
+        <v>6</v>
+      </c>
+      <c r="F296" s="8">
+        <v>6</v>
+      </c>
+      <c r="G296" s="9">
+        <v>5</v>
+      </c>
+      <c r="H296" s="10">
+        <v>1016</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K296" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="L296" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="M296" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N296" s="18" t="s">
+        <v>1906</v>
+      </c>
+      <c r="O296" s="17" t="s">
+        <v>1915</v>
+      </c>
+      <c r="P296" s="2"/>
+      <c r="Q296" s="2"/>
+      <c r="R296" s="2"/>
+    </row>
+    <row r="297" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B297" s="30">
+        <v>13</v>
+      </c>
+      <c r="C297" s="31">
+        <v>39</v>
+      </c>
+      <c r="D297" s="7">
+        <v>63</v>
+      </c>
+      <c r="E297" s="8">
+        <v>6</v>
+      </c>
+      <c r="F297" s="8">
+        <v>6</v>
+      </c>
+      <c r="G297" s="9">
+        <v>6</v>
+      </c>
+      <c r="H297" s="10">
+        <v>1012</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J297" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="K297" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="L297" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M297" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N297" s="16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O297" s="17" t="s">
+        <v>1916</v>
+      </c>
+      <c r="P297" s="2"/>
+      <c r="Q297" s="2"/>
+      <c r="R297" s="2"/>
+    </row>
+    <row r="298" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B298" s="30">
+        <v>13</v>
+      </c>
+      <c r="C298" s="31">
+        <v>39</v>
+      </c>
+      <c r="D298" s="7">
+        <v>63</v>
+      </c>
+      <c r="E298" s="8">
+        <v>6</v>
+      </c>
+      <c r="F298" s="8">
+        <v>6</v>
+      </c>
+      <c r="G298" s="9">
+        <v>5</v>
+      </c>
+      <c r="H298" s="10">
+        <v>1011</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J298" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K298" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="L298" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="M298" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="N298" s="16" t="s">
+        <v>1907</v>
+      </c>
+      <c r="O298" s="17" t="s">
+        <v>1917</v>
+      </c>
+      <c r="P298" s="2"/>
+      <c r="Q298" s="2"/>
+      <c r="R298" s="2"/>
+    </row>
+    <row r="299" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="4" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B299" s="30">
+        <v>13</v>
+      </c>
+      <c r="C299" s="31">
+        <v>39</v>
+      </c>
+      <c r="D299" s="7">
+        <v>63</v>
+      </c>
+      <c r="E299" s="8">
+        <v>6</v>
+      </c>
+      <c r="F299" s="8">
+        <v>6</v>
+      </c>
+      <c r="G299" s="9">
+        <v>6</v>
+      </c>
+      <c r="H299" s="10">
+        <v>1012</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="J299" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K299" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="L299" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M299" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="N299" s="18" t="s">
+        <v>1908</v>
+      </c>
+      <c r="O299" s="17" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P299" s="2"/>
+      <c r="Q299" s="2"/>
+      <c r="R299" s="2"/>
+    </row>
+    <row r="300" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B300" s="5">
+        <v>13</v>
+      </c>
+      <c r="C300" s="6">
+        <v>39</v>
+      </c>
+      <c r="D300" s="7">
+        <v>64</v>
+      </c>
+      <c r="E300" s="8">
+        <v>6</v>
+      </c>
+      <c r="F300" s="8">
+        <v>6</v>
+      </c>
+      <c r="G300" s="9">
+        <v>6</v>
+      </c>
+      <c r="H300" s="10">
+        <v>1013</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="K300" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="L300" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="M300" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N300" s="18" t="s">
+        <v>1909</v>
+      </c>
+      <c r="O300" s="17" t="s">
+        <v>1919</v>
+      </c>
+      <c r="P300" s="2"/>
+      <c r="Q300" s="2"/>
+      <c r="R300" s="2"/>
+    </row>
+    <row r="301" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B301" s="5">
+        <v>13</v>
+      </c>
+      <c r="C301" s="6">
+        <v>35</v>
+      </c>
+      <c r="D301" s="7">
+        <v>65</v>
+      </c>
+      <c r="E301" s="8">
+        <v>6</v>
+      </c>
+      <c r="F301" s="8">
+        <v>4</v>
+      </c>
+      <c r="G301" s="9">
+        <v>4</v>
+      </c>
+      <c r="H301" s="10">
+        <v>993</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K301" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="L301" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="M301" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N301" s="16" t="s">
+        <v>1910</v>
+      </c>
+      <c r="O301" s="17" t="s">
+        <v>1920</v>
+      </c>
+      <c r="P301" s="3"/>
+      <c r="Q301" s="3"/>
+      <c r="R301" s="3"/>
+    </row>
+    <row r="302" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B302" s="5">
+        <v>5</v>
+      </c>
+      <c r="C302" s="6">
+        <v>38</v>
+      </c>
+      <c r="D302" s="7">
+        <v>61</v>
+      </c>
+      <c r="E302" s="8">
+        <v>6</v>
+      </c>
+      <c r="F302" s="8">
+        <v>4</v>
+      </c>
+      <c r="G302" s="9">
+        <v>1</v>
+      </c>
+      <c r="H302" s="10">
+        <v>991</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K302" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L302" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="M302" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N302" s="18" t="s">
+        <v>1911</v>
+      </c>
+      <c r="O302" s="17" t="s">
+        <v>1921</v>
+      </c>
+      <c r="P302" s="2"/>
+      <c r="Q302" s="2"/>
+      <c r="R302" s="2"/>
+    </row>
+    <row r="303" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B303" s="5">
+        <v>13</v>
+      </c>
+      <c r="C303" s="6">
+        <v>35</v>
+      </c>
+      <c r="D303" s="7">
+        <v>62</v>
+      </c>
+      <c r="E303" s="8">
+        <v>6</v>
+      </c>
+      <c r="F303" s="8">
+        <v>4</v>
+      </c>
+      <c r="G303" s="9">
+        <v>2</v>
+      </c>
+      <c r="H303" s="10">
+        <v>992</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K303" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L303" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="M303" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N303" s="16" t="s">
+        <v>1912</v>
+      </c>
+      <c r="O303" s="17" t="s">
+        <v>1922</v>
+      </c>
+      <c r="P303" s="3"/>
+      <c r="Q303" s="3"/>
+      <c r="R303" s="3"/>
+    </row>
+    <row r="304" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B304" s="5">
+        <v>5</v>
+      </c>
+      <c r="C304" s="6">
+        <v>38</v>
+      </c>
+      <c r="D304" s="7">
+        <v>61</v>
+      </c>
+      <c r="E304" s="8">
+        <v>6</v>
+      </c>
+      <c r="F304" s="8">
+        <v>4</v>
+      </c>
+      <c r="G304" s="9">
+        <v>1</v>
+      </c>
+      <c r="H304" s="10">
+        <v>991</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J304" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K304" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="L304" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="M304" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N304" s="16" t="s">
+        <v>1913</v>
+      </c>
+      <c r="O304" s="17" t="s">
+        <v>1923</v>
+      </c>
+      <c r="P304" s="2"/>
+      <c r="Q304" s="2"/>
+      <c r="R304" s="2"/>
+    </row>
+    <row r="305" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="29" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B305" s="30">
+        <v>13</v>
+      </c>
+      <c r="C305" s="31">
+        <v>39</v>
+      </c>
+      <c r="D305" s="32">
+        <v>62</v>
+      </c>
+      <c r="E305" s="33">
+        <v>5</v>
+      </c>
+      <c r="F305" s="33">
+        <v>6</v>
+      </c>
+      <c r="G305" s="42">
+        <v>3</v>
+      </c>
+      <c r="H305" s="35">
+        <v>999</v>
+      </c>
+      <c r="I305" s="36" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J305" s="39" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K305" s="39" t="s">
+        <v>1936</v>
+      </c>
+      <c r="L305" s="39" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M305" s="39" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N305" s="37" t="s">
+        <v>1860</v>
+      </c>
+      <c r="O305" s="41" t="s">
+        <v>1947</v>
+      </c>
+      <c r="P305" s="36"/>
+      <c r="Q305" s="36"/>
+      <c r="R305" s="36"/>
+    </row>
+    <row r="306" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="29" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B306" s="30">
+        <v>13</v>
+      </c>
+      <c r="C306" s="31">
+        <v>39</v>
+      </c>
+      <c r="D306" s="32">
+        <v>65</v>
+      </c>
+      <c r="E306" s="33">
+        <v>5</v>
+      </c>
+      <c r="F306" s="33">
+        <v>6</v>
+      </c>
+      <c r="G306" s="42">
+        <v>3</v>
+      </c>
+      <c r="H306" s="35">
+        <v>1001</v>
+      </c>
+      <c r="I306" s="36" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J306" s="39" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K306" s="39" t="s">
+        <v>1851</v>
+      </c>
+      <c r="L306" s="39" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M306" s="39" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N306" s="37" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O306" s="41" t="s">
+        <v>1948</v>
+      </c>
+      <c r="P306" s="36"/>
+      <c r="Q306" s="36"/>
+      <c r="R306" s="36"/>
+    </row>
+    <row r="307" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="29" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B307" s="30">
+        <v>13</v>
+      </c>
+      <c r="C307" s="31">
+        <v>39</v>
+      </c>
+      <c r="D307" s="32">
+        <v>64</v>
+      </c>
+      <c r="E307" s="33">
+        <v>5</v>
+      </c>
+      <c r="F307" s="33">
+        <v>6</v>
+      </c>
+      <c r="G307" s="42">
+        <v>3</v>
+      </c>
+      <c r="H307" s="35">
+        <v>1002</v>
+      </c>
+      <c r="I307" s="36" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J307" s="39" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K307" s="40" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L307" s="39" t="s">
+        <v>1245</v>
+      </c>
+      <c r="M307" s="39" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N307" s="37" t="s">
+        <v>1943</v>
+      </c>
+      <c r="O307" s="38" t="s">
+        <v>1949</v>
+      </c>
+      <c r="P307" s="36"/>
+      <c r="Q307" s="36"/>
+      <c r="R307" s="36"/>
+    </row>
+    <row r="308" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="29" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B308" s="30">
+        <v>5</v>
+      </c>
+      <c r="C308" s="31">
+        <v>35</v>
+      </c>
+      <c r="D308" s="32">
+        <v>61</v>
+      </c>
+      <c r="E308" s="33">
+        <v>5</v>
+      </c>
+      <c r="F308" s="33">
+        <v>4</v>
+      </c>
+      <c r="G308" s="42">
+        <v>2</v>
+      </c>
+      <c r="H308" s="35">
+        <v>1003</v>
+      </c>
+      <c r="I308" s="36" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J308" s="39" t="s">
+        <v>1933</v>
+      </c>
+      <c r="K308" s="39" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L308" s="39" t="s">
+        <v>1941</v>
+      </c>
+      <c r="M308" s="39" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N308" s="37" t="s">
+        <v>1944</v>
+      </c>
+      <c r="O308" s="41" t="s">
+        <v>1950</v>
+      </c>
+      <c r="P308" s="36"/>
+      <c r="Q308" s="36"/>
+      <c r="R308" s="36"/>
+    </row>
+    <row r="309" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="29" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B309" s="30">
+        <v>13</v>
+      </c>
+      <c r="C309" s="31">
+        <v>35</v>
+      </c>
+      <c r="D309" s="32">
+        <v>62</v>
+      </c>
+      <c r="E309" s="33">
+        <v>5</v>
+      </c>
+      <c r="F309" s="33">
+        <v>4</v>
+      </c>
+      <c r="G309" s="42">
+        <v>2</v>
+      </c>
+      <c r="H309" s="35">
+        <v>994</v>
+      </c>
+      <c r="I309" s="36" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J309" s="39" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K309" s="39" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L309" s="39" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M309" s="39" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N309" s="37" t="s">
+        <v>1945</v>
+      </c>
+      <c r="O309" s="41" t="s">
+        <v>1951</v>
+      </c>
+      <c r="P309" s="36"/>
+      <c r="Q309" s="36"/>
+      <c r="R309" s="36"/>
+    </row>
+    <row r="310" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="29" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B310" s="30">
+        <v>13</v>
+      </c>
+      <c r="C310" s="31">
+        <v>35</v>
+      </c>
+      <c r="D310" s="32">
+        <v>62</v>
+      </c>
+      <c r="E310" s="33">
+        <v>5</v>
+      </c>
+      <c r="F310" s="33">
+        <v>4</v>
+      </c>
+      <c r="G310" s="42">
+        <v>3</v>
+      </c>
+      <c r="H310" s="35">
+        <v>997</v>
+      </c>
+      <c r="I310" s="36" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J310" s="39" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K310" s="40" t="s">
+        <v>1940</v>
+      </c>
+      <c r="L310" s="39" t="s">
+        <v>1942</v>
+      </c>
+      <c r="M310" s="39" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N310" s="37" t="s">
+        <v>1946</v>
+      </c>
+      <c r="O310" s="38" t="s">
+        <v>1952</v>
+      </c>
+      <c r="P310" s="36"/>
+      <c r="Q310" s="36"/>
+      <c r="R310" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="60">
